--- a/biology/Médecine/Karl_Friedrich_Wilhelm_Wallroth/Karl_Friedrich_Wilhelm_Wallroth.xlsx
+++ b/biology/Médecine/Karl_Friedrich_Wilhelm_Wallroth/Karl_Friedrich_Wilhelm_Wallroth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Friedrich Wilhelm Wallroth (13 mars 1792 à Breitenstein dans le Bas-Harz, dans le comté de Stolberg-Roßla (en) - 22 mars 1857 à Nordhausen) est un médecin et botaniste prussien.
 C’est lui qui aurait introduit les termes « homomère » et « hétéromère » pour caractériser les deux types anatomiques différents du thalle des lichens
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un prédicateur, c’est chez ses parents qu’il reçoit une éducation approfondie après avoir été scolarisé à l'école du couvent de Roßleben.
 Après des études de médecine et de botanique commencées à l'Université de Halle puis achevées à celle de Göttingen, où il a suivi les cours du botaniste Heinrich Adolf Schrader (1767-1836), il obtient son titre de Docteur en médecine en 1816.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parmi ses nombreux écrits, on peut citer :
 Rosae plantarum generis historia succincta, in qua rosarum species tum suae terrae proventu tum in hortis natas suppositicias secundum normas naturales (1828)
@@ -578,10 +594,12 @@
           <t>Espèce éponyme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cicerbita alpina (L.) Wallr[1].
-Trapeliopsis wallrothii[2]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cicerbita alpina (L.) Wallr.
+Trapeliopsis wallrothii</t>
         </is>
       </c>
     </row>
